--- a/clientes.xlsx
+++ b/clientes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danielrp551\OneDrive\Documentos\TRABAJO\TRABAJO-CHATBOT\server_py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B71A59-B948-4312-B366-605B61F55CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864CB56B-DD46-4980-BDA0-29A8C1C26B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8985" yWindow="5100" windowWidth="16575" windowHeight="7605" xr2:uid="{DD16B0FA-D587-48E9-AF96-7ACB9E650AAA}"/>
+    <workbookView xWindow="1837" yWindow="1837" windowWidth="14401" windowHeight="7283" xr2:uid="{DD16B0FA-D587-48E9-AF96-7ACB9E650AAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Nombre</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t>Rivas</t>
+  </si>
+  <si>
+    <t>Jhon</t>
+  </si>
+  <si>
+    <t>Castillo</t>
   </si>
 </sst>
 </file>
@@ -106,8 +112,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F494BD96-B9EB-46A7-9723-14BC69397742}" name="Tabla1" displayName="Tabla1" ref="A1:C2" totalsRowShown="0">
-  <autoFilter ref="A1:C2" xr:uid="{F494BD96-B9EB-46A7-9723-14BC69397742}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F494BD96-B9EB-46A7-9723-14BC69397742}" name="Tabla1" displayName="Tabla1" ref="A1:C3" totalsRowShown="0">
+  <autoFilter ref="A1:C3" xr:uid="{F494BD96-B9EB-46A7-9723-14BC69397742}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8A4BEF56-FE84-4D5E-B12A-83525DD3C4C5}" name="Nombre"/>
     <tableColumn id="2" xr3:uid="{184338D0-1174-432C-9BAA-7F747437483E}" name="Apellido"/>
@@ -434,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA55BCE-B46E-4A18-8951-D7BE44367B3A}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -469,6 +475,17 @@
         <v>51932709296</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>51945827800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/clientes.xlsx
+++ b/clientes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28221"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28223"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danielrp551\OneDrive\Documentos\TRABAJO\TRABAJO-CHATBOT\server_py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864CB56B-DD46-4980-BDA0-29A8C1C26B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9883F7A-C053-4EC7-8105-069AA69A0DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1837" yWindow="1837" windowWidth="14401" windowHeight="7283" xr2:uid="{DD16B0FA-D587-48E9-AF96-7ACB9E650AAA}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Nombre</t>
   </si>
@@ -51,12 +52,6 @@
   </si>
   <si>
     <t>Rivas</t>
-  </si>
-  <si>
-    <t>Jhon</t>
-  </si>
-  <si>
-    <t>Castillo</t>
   </si>
 </sst>
 </file>
@@ -112,8 +107,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F494BD96-B9EB-46A7-9723-14BC69397742}" name="Tabla1" displayName="Tabla1" ref="A1:C3" totalsRowShown="0">
-  <autoFilter ref="A1:C3" xr:uid="{F494BD96-B9EB-46A7-9723-14BC69397742}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F494BD96-B9EB-46A7-9723-14BC69397742}" name="Tabla1" displayName="Tabla1" ref="A1:C2" totalsRowShown="0">
+  <autoFilter ref="A1:C2" xr:uid="{F494BD96-B9EB-46A7-9723-14BC69397742}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8A4BEF56-FE84-4D5E-B12A-83525DD3C4C5}" name="Nombre"/>
     <tableColumn id="2" xr3:uid="{184338D0-1174-432C-9BAA-7F747437483E}" name="Apellido"/>
@@ -440,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA55BCE-B46E-4A18-8951-D7BE44367B3A}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -475,17 +470,6 @@
         <v>51932709296</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>51945827800</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/clientes.xlsx
+++ b/clientes.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28221"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28223"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danielrp551\OneDrive\Documentos\TRABAJO\TRABAJO-CHATBOT\server_py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B71A59-B948-4312-B366-605B61F55CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9883F7A-C053-4EC7-8105-069AA69A0DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8985" yWindow="5100" windowWidth="16575" windowHeight="7605" xr2:uid="{DD16B0FA-D587-48E9-AF96-7ACB9E650AAA}"/>
+    <workbookView xWindow="1837" yWindow="1837" windowWidth="14401" windowHeight="7283" xr2:uid="{DD16B0FA-D587-48E9-AF96-7ACB9E650AAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -437,7 +438,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
